--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,166 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>3400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>3200</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F10" s="3">
         <v>3800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>8500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3000</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,37 +836,45 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E12" s="3">
-        <v>4000</v>
+        <v>2300</v>
       </c>
       <c r="F12" s="3">
         <v>2000</v>
       </c>
       <c r="G12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="3">
         <v>2200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>4800</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,8 +902,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,26 +919,32 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -927,8 +972,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +988,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F17" s="3">
         <v>7300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>8700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>13800</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-7600</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,124 +1073,150 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
-      </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
-      <c r="G20" s="3">
-        <v>100</v>
       </c>
       <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="3">
         <v>-3600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>200</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1153,8 +1244,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1279,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1384,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1419,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1454,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1489,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-100</v>
       </c>
       <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="I32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1594,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1688,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1703,25 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>149000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>159200</v>
+      </c>
+      <c r="F41" s="3">
         <v>19700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>11300</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1734,14 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,23 +1769,29 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F43" s="3">
         <v>9400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>15400</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,23 +1804,29 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F44" s="3">
         <v>4800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1648,22 +1839,28 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>400</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>300</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1677,23 +1874,29 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>163000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F46" s="3">
         <v>34400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>31500</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,8 +1909,14 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1735,23 +1944,29 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,8 +1979,14 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1793,8 +2014,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +2049,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +2084,29 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>600</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +2119,14 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2154,29 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>178800</v>
+      </c>
+      <c r="F54" s="3">
         <v>43400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>39900</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2189,14 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2208,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2223,25 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,23 +2254,29 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2000</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2289,29 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="F59" s="3">
         <v>8200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2324,29 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F60" s="3">
         <v>12300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8500</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,23 +2359,29 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>14300</v>
+      </c>
+      <c r="F61" s="3">
         <v>11300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>12800</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2109,23 +2394,29 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14600</v>
+      </c>
+      <c r="F62" s="3">
         <v>14300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>11500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2138,8 +2429,14 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2464,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2499,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2534,29 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="F66" s="3">
         <v>37900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>32800</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2569,14 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2588,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2619,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,23 +2654,29 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
         <v>71100</v>
       </c>
-      <c r="E70" s="3">
+      <c r="G70" s="3">
         <v>71100</v>
       </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
       <c r="H70" s="3">
         <v>0</v>
       </c>
@@ -2354,8 +2689,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2724,29 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-84600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-78500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-68200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-66500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2759,14 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2794,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2829,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2864,29 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>133300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>139000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-65600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-64000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2899,14 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2934,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +3028,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>400</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +3094,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +3129,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +3164,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +3199,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3234,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>8200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-11200</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3288,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3354,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3389,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3443,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3474,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3509,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3544,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,37 +3579,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>137200</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>17200</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3152,33 +3649,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>139500</v>
+      </c>
+      <c r="F102" s="3">
         <v>8400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>5000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>5700</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,166 +665,179 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E8" s="3">
         <v>5500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>3400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6200</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>2900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>8500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3000</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -838,43 +851,47 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E12" s="3">
         <v>3000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>4800</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -908,8 +925,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -925,15 +945,15 @@
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
@@ -943,8 +963,11 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1001,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -990,78 +1016,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E17" s="3">
         <v>11400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>7300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>13800</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-5900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1075,25 +1108,26 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
@@ -1101,8 +1135,8 @@
       <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
+      <c r="K20" s="3">
+        <v>100</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
@@ -1110,113 +1144,125 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-5600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>200</v>
       </c>
       <c r="G22" s="3">
+        <v>200</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>600</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-6100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-4800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1250,8 +1296,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1285,78 +1334,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-6100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-4800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-6100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-4800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1390,8 +1448,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1425,8 +1486,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1460,8 +1524,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1495,25 +1562,28 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
@@ -1521,8 +1591,8 @@
       <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
+      <c r="K32" s="3">
+        <v>-100</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
@@ -1530,43 +1600,49 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-6100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-4800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1600,83 +1676,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-6100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-4800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1690,8 +1775,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1705,26 +1791,27 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E41" s="3">
         <v>149000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>159200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>19700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>11300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1740,8 +1827,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1775,26 +1865,29 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>9400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15400</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,26 +1903,29 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E44" s="3">
         <v>6800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,26 +1941,29 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E45" s="3">
         <v>2800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,26 +1979,29 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>157200</v>
+      </c>
+      <c r="E46" s="3">
         <v>163000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>171000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>34400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>31500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +2017,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1950,26 +2055,29 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E48" s="3">
         <v>7000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,8 +2093,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2020,8 +2131,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2055,8 +2169,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2090,26 +2207,29 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
         <v>1800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>600</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2245,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2160,26 +2283,29 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166500</v>
+      </c>
+      <c r="E54" s="3">
         <v>171800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>178800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>43400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>39900</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2195,8 +2321,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2339,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2225,26 +2355,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2260,26 +2391,29 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2000</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2295,26 +2429,29 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E59" s="3">
         <v>7600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>9300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,26 +2467,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
         <v>9200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>10800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>12300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8500</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,8 +2505,11 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2374,17 +2517,17 @@
         <v>15000</v>
       </c>
       <c r="E61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F61" s="3">
         <v>14300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>11300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>12800</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -2400,26 +2543,29 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E62" s="3">
         <v>14200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2435,8 +2581,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2470,8 +2619,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2505,8 +2657,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2540,26 +2695,29 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="E66" s="3">
         <v>38400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>39800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>37900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32800</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2733,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2590,8 +2751,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2625,8 +2787,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2660,8 +2825,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2672,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>71100</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2695,8 +2863,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2730,26 +2901,29 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-84600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-78500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-68200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-66500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2765,8 +2939,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2800,8 +2977,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2835,8 +3015,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2870,26 +3053,29 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E76" s="3">
         <v>133300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>139000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-65600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-64000</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2905,8 +3091,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2940,83 +3129,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-6100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-4800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3030,43 +3228,47 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
         <v>100</v>
-      </c>
-      <c r="E83" s="3">
-        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3">
         <v>400</v>
-      </c>
-      <c r="H83" s="3">
-        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>200</v>
       </c>
       <c r="J83" s="3">
+        <v>200</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3100,8 +3302,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3135,8 +3340,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3170,8 +3378,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3205,8 +3416,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3240,43 +3454,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>8200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-11200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3290,43 +3510,47 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3360,8 +3584,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3395,43 +3622,49 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3445,8 +3678,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3480,8 +3714,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3515,8 +3752,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3550,8 +3790,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3585,20 +3828,23 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>137200</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -3606,22 +3852,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>17200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3655,39 +3904,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>139500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>5000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,192 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E8" s="3">
         <v>8300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>15100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>3400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6200</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>6600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>8500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4800</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,8 +945,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -948,15 +968,15 @@
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
@@ -966,8 +986,11 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,84 +1043,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E17" s="3">
         <v>15700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>7300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>13800</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-7400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,28 +1142,29 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
@@ -1138,8 +1172,8 @@
       <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
+      <c r="L20" s="3">
+        <v>100</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
@@ -1147,46 +1181,52 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-5600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
         <v>0</v>
       </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1194,75 +1234,81 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>200</v>
       </c>
       <c r="H22" s="3">
+        <v>200</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>600</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-6100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-4800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1299,8 +1345,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-6100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-4800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-6100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-4800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,28 +1632,31 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
@@ -1594,8 +1664,8 @@
       <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
+      <c r="L32" s="3">
+        <v>-100</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
@@ -1603,46 +1673,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-6100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-4800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-6100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-4800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>138800</v>
+      </c>
+      <c r="E41" s="3">
         <v>141300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>149000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>159200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,8 +1917,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1868,29 +1958,32 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8400</v>
+      </c>
+      <c r="E43" s="3">
         <v>5500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>9400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>15400</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,29 +1999,32 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E44" s="3">
         <v>8000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>4800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E45" s="3">
         <v>2400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>2800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>157500</v>
+      </c>
+      <c r="E46" s="3">
         <v>157200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>163000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>171000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>34400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>31500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2058,29 +2163,32 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E48" s="3">
         <v>7400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2204,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2134,8 +2245,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>600</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2248,8 +2368,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>166300</v>
+      </c>
+      <c r="E54" s="3">
         <v>166500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>171800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>178800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>43400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>39900</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,29 +2525,32 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
       </c>
       <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2000</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,29 +2566,32 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>7600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>9200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>10800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>12300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8500</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2520,17 +2663,17 @@
         <v>15000</v>
       </c>
       <c r="F61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="G61" s="3">
         <v>14300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>11300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>12800</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15500</v>
+      </c>
+      <c r="E62" s="3">
         <v>13600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>14600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>14300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E66" s="3">
         <v>39800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>38400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>39800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>37900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>32800</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>71100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-97200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-92000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-84600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-78500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-68200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-66500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>122800</v>
+      </c>
+      <c r="E76" s="3">
         <v>126700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>133300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>139000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-65600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-64000</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-6100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-4800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,46 +3427,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>300</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,46 +3671,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>8200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-11200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,46 +3731,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,46 +3852,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,23 +4074,26 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>137200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -3855,22 +4101,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>17200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,42 +4156,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>139500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-6600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>5000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,192 +665,217 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="F8" s="3">
         <v>12500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>8300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>5700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>6000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>15100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>3400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>6700</v>
+      </c>
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>6600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3200</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F10" s="3">
         <v>6800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>4400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>8500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>4300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3000</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +891,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F12" s="3">
         <v>3300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>3100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>2300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4000</v>
       </c>
       <c r="J12" s="3">
         <v>2000</v>
       </c>
       <c r="K12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="L12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M12" s="3">
         <v>2200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>4800</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,8 +981,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -971,26 +1010,32 @@
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1075,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,8 +1095,10 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1053,81 +1106,93 @@
         <v>17800</v>
       </c>
       <c r="E17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="G17" s="3">
         <v>15700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>11400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>9600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>8700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>13800</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-7400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-7600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,90 +1208,104 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
-      <c r="K20" s="3">
-        <v>100</v>
       </c>
       <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
+      <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
+        <v>100</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-4900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-5600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-9800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1237,78 +1316,90 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>600</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-5200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-6100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-10200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-4800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1348,8 +1439,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1486,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-5200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-7400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-6100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-10200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-4800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-5200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-7400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-6100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-10200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-4800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1627,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1674,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1721,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,90 +1768,108 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-100</v>
       </c>
       <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
+      <c r="M32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="3">
+        <v>-100</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-5200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-7400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-6100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-10200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-4800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1909,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-5200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-7400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-6100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-10200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-4800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +2031,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,35 +2050,37 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>223100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>224100</v>
+      </c>
+      <c r="F41" s="3">
         <v>138800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>141300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>149000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>159200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>19700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>11300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,8 +2093,14 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1961,35 +2140,41 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>16400</v>
+      </c>
+      <c r="F43" s="3">
         <v>8400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>4400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>6900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>9400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>15400</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2002,35 +2187,41 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>9600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F44" s="3">
         <v>8300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>4800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,34 +2234,40 @@
       <c r="O44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F45" s="3">
         <v>2000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>2400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>2800</v>
-      </c>
-      <c r="G45" s="3">
-        <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>400</v>
       </c>
       <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
+      <c r="J45" s="3">
+        <v>400</v>
+      </c>
+      <c r="K45" s="3">
+        <v>300</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
@@ -2084,35 +2281,41 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>243000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>252900</v>
+      </c>
+      <c r="F46" s="3">
         <v>157500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>157200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>163000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>171000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>34400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>31500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2328,14 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2166,8 +2375,14 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2175,26 +2390,26 @@
         <v>7100</v>
       </c>
       <c r="E48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="G48" s="3">
         <v>7400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>7800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2207,8 +2422,14 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2248,8 +2469,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2516,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,35 +2563,41 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1800</v>
       </c>
       <c r="G52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I52" s="3">
         <v>700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>1600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>600</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2371,8 +2610,14 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,35 +2657,41 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>251200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>260900</v>
+      </c>
+      <c r="F54" s="3">
         <v>166300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>166500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>171800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>178800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>43400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>39900</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2704,14 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2727,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,35 +2746,37 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1700</v>
       </c>
       <c r="G57" s="3">
         <v>1000</v>
       </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,13 +2789,19 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2543,20 +2810,20 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2000</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2569,35 +2836,41 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F59" s="3">
         <v>11100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>7600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>9300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,35 +2883,41 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F60" s="3">
         <v>13100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>9200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>10800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>12300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>8500</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2930,14 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2666,20 +2951,20 @@
         <v>15000</v>
       </c>
       <c r="G61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="H61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="I61" s="3">
         <v>14300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>11300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>12800</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2692,35 +2977,41 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>16500</v>
+      </c>
+      <c r="F62" s="3">
         <v>15500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>13600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>14200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>14600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>14300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +3024,14 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +3071,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +3118,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,35 +3165,41 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>44400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>46300</v>
+      </c>
+      <c r="F66" s="3">
         <v>43500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>39800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>38400</v>
       </c>
       <c r="G66" s="3">
         <v>39800</v>
       </c>
       <c r="H66" s="3">
+        <v>38400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="J66" s="3">
         <v>37900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>32800</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3212,14 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3235,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3278,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3325,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,17 +3349,17 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
         <v>71100</v>
       </c>
-      <c r="I70" s="3">
+      <c r="K70" s="3">
         <v>71100</v>
       </c>
-      <c r="J70" s="3">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3">
-        <v>0</v>
-      </c>
       <c r="L70" s="3">
         <v>0</v>
       </c>
@@ -3037,8 +3372,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,35 +3419,41 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-100600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-97200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-92000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-84600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-78500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-68200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-66500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3466,14 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3513,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3560,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,35 +3607,41 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>206800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>214600</v>
+      </c>
+      <c r="F76" s="3">
         <v>122800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>126700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>133300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>139000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-65600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-64000</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3654,14 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3701,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-5200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-7400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-6100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-10200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-4800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,8 +3823,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3437,40 +3834,46 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
+        <v>200</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3913,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3960,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +4007,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +4054,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,49 +4101,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>2300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>8200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-6400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-11200</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,49 +4171,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4261,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,49 +4308,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4378,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4421,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4468,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4515,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,49 +4562,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>94500</v>
+      </c>
+      <c r="F100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>137200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>17200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,45 +4656,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>85300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-10200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>139500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>8400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-6600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>5000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,217 +665,230 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E8" s="3">
         <v>8300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>15800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>12500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>6000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>3100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3200</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E10" s="3">
         <v>4100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>9100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>6800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>4400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>3800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>8500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3000</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>4800</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,8 +1004,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1016,15 +1036,15 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,102 +1123,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E17" s="3">
         <v>17800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>19400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>17800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>15700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>9600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>13800</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-3600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-7600</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,37 +1243,38 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E20" s="3">
         <v>100</v>
       </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>300</v>
-      </c>
-      <c r="L20" s="3">
-        <v>100</v>
       </c>
       <c r="M20" s="3">
         <v>100</v>
@@ -1248,8 +1282,8 @@
       <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>100</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1257,55 +1291,61 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-9100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-4900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-5600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
         <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1322,84 +1362,90 @@
         <v>0</v>
       </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>200</v>
       </c>
       <c r="J22" s="3">
         <v>200</v>
       </c>
       <c r="K22" s="3">
+        <v>200</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>600</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-3500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-6100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-10200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-4800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-8100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1445,8 +1491,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-3500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-6100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-3500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-6100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-10200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-4800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,37 +1841,40 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E32" s="3">
         <v>-100</v>
       </c>
       <c r="F32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-300</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-100</v>
       </c>
       <c r="M32" s="3">
         <v>-100</v>
@@ -1812,8 +1882,8 @@
       <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>-100</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1821,55 +1891,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-3500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-6100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-10200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-4800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-3500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-6100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-10200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-4800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E41" s="3">
         <v>223100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>224100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>138800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>141300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>149000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>159200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>11300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,8 +2186,11 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2146,38 +2236,41 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E43" s="3">
         <v>6300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>16400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>8400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>9400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15400</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2193,38 +2286,41 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E44" s="3">
         <v>9600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>7900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4400</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>238700</v>
+      </c>
+      <c r="E46" s="3">
         <v>243000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>252900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>157500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>157200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>163000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>171000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>34400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31500</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2381,38 +2486,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E48" s="3">
         <v>7100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2428,8 +2536,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2475,8 +2586,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E52" s="3">
         <v>1200</v>
       </c>
       <c r="F52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>600</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2616,8 +2736,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>247000</v>
+      </c>
+      <c r="E54" s="3">
         <v>251200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>260900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>166300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>171800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>178800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>43400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,38 +2878,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,16 +2926,19 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -2816,17 +2950,17 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2000</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2842,38 +2976,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E59" s="3">
         <v>11500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>11100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>7600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>9300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E60" s="3">
         <v>13700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>9200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>12300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8500</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2957,17 +3100,17 @@
         <v>15000</v>
       </c>
       <c r="I61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J61" s="3">
         <v>14300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>11300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>12800</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E62" s="3">
         <v>15800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>13600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>14200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E66" s="3">
         <v>44400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>43500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>39800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>38400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>39800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>37900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32800</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>71100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-118200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-100600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-97200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-92000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-84600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-78500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-68200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-66500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>201100</v>
+      </c>
+      <c r="E76" s="3">
         <v>206800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>214600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>122800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>126700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>133300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>139000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-65600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-64000</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-3500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-6100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-10200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-4800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3840,40 +4039,43 @@
         <v>300</v>
       </c>
       <c r="G83" s="3">
+        <v>300</v>
+      </c>
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
+        <v>200</v>
+      </c>
+      <c r="L83" s="3">
         <v>400</v>
-      </c>
-      <c r="L83" s="3">
-        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>200</v>
       </c>
       <c r="N83" s="3">
+        <v>200</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,55 +4321,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-9600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-11200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,55 +4393,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,55 +4541,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,32 +4811,35 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>94500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>137200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -4601,22 +4847,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>5000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>17200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,51 +4911,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>85300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-2500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>139500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,230 +665,243 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15800</v>
+      </c>
+      <c r="E8" s="3">
         <v>11100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>8300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>12500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>15100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>8300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E9" s="3">
         <v>4500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>4200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>5700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>6600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3200</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>9300</v>
+      </c>
+      <c r="E10" s="3">
         <v>6600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>3800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>8500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>4300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3000</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
         <v>4300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>3900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>3700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4800</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,8 +1024,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1039,15 +1059,15 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1057,31 +1077,34 @@
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,108 +1150,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>19500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>17800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>19400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>15700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>8700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>13800</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-7600</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,40 +1277,41 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
-      </c>
-      <c r="E20" s="3">
-        <v>100</v>
       </c>
       <c r="F20" s="3">
         <v>100</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>300</v>
-      </c>
-      <c r="M20" s="3">
-        <v>100</v>
       </c>
       <c r="N20" s="3">
         <v>100</v>
@@ -1285,8 +1319,8 @@
       <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
+      <c r="P20" s="3">
+        <v>100</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
@@ -1294,58 +1328,64 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-4900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1365,87 +1405,93 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>200</v>
       </c>
       <c r="K22" s="3">
         <v>200</v>
       </c>
       <c r="L22" s="3">
+        <v>200</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>600</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-8100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-6100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-4800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1494,8 +1540,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-4800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,40 +1911,43 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-100</v>
       </c>
       <c r="F32" s="3">
         <v>-100</v>
       </c>
       <c r="G32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-300</v>
-      </c>
-      <c r="M32" s="3">
-        <v>-100</v>
       </c>
       <c r="N32" s="3">
         <v>-100</v>
@@ -1885,8 +1955,8 @@
       <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
+      <c r="P32" s="3">
+        <v>-100</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-4800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-4800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>193700</v>
+      </c>
+      <c r="E41" s="3">
         <v>213000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>223100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>224100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>138800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>141300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>149000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>159200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>11300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,8 +2276,11 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2239,41 +2329,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E43" s="3">
         <v>11100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>16400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>8400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>4400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>9400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15400</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2289,41 +2382,44 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E44" s="3">
         <v>11200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>9600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>7900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>4800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>4400</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2339,41 +2435,44 @@
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E45" s="3">
         <v>3400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>2400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>2800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>223900</v>
+      </c>
+      <c r="E46" s="3">
         <v>238700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>243000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>252900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>157500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>157200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>163000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>171000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>34400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>31500</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2489,8 +2594,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2498,32 +2606,32 @@
         <v>7000</v>
       </c>
       <c r="E48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F48" s="3">
         <v>7100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2539,31 +2647,34 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>17200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -2589,8 +2700,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1200</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>600</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2739,8 +2859,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>249300</v>
+      </c>
+      <c r="E54" s="3">
         <v>247000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>251200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>260900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>166300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>166500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>171800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>178800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,41 +3009,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,8 +3074,8 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -2953,17 +3087,17 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2979,41 +3113,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E59" s="3">
         <v>14200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>11500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>7600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E60" s="3">
         <v>15400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>13700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>14800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>9200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>10800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8500</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3103,17 +3246,17 @@
         <v>15000</v>
       </c>
       <c r="J61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="K61" s="3">
         <v>14300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>11300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>12800</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E62" s="3">
         <v>15400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>15800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>16500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>13600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11500</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E66" s="3">
         <v>45900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>44400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>46300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>43500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>39800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>38400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>39800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>37900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32800</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>71100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-124400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-118200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-100600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-97200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-92000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-84600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-78500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-68200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-66500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>196500</v>
+      </c>
+      <c r="E76" s="3">
         <v>201100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>206800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>214600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>122800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>126700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>133300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>139000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-65600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-64000</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-4800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,13 +4222,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>300</v>
@@ -4042,40 +4241,43 @@
         <v>300</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>200</v>
+      </c>
+      <c r="M83" s="3">
         <v>400</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,58 +4538,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-9200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>2300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-11200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,58 +4614,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,58 +4771,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,35 +5057,38 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>94500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>137200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4850,22 +5096,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>5000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>17200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,54 +5163,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>85300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-10200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>139500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>8400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>5700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,268 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11600</v>
+      </c>
+      <c r="F8" s="3">
         <v>15800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>11100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>8300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>15800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>12500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>6000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>15100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>8300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>3400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F9" s="3">
         <v>6500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>4500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>5700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>6600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>3200</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F10" s="3">
         <v>9300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>6600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>4100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>9100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>6800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>4400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>8500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>4300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>3000</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -921,61 +946,69 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="G12" s="3">
         <v>4300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>3900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>3700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>3100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>4000</v>
       </c>
       <c r="N12" s="3">
         <v>2000</v>
       </c>
       <c r="O12" s="3">
+        <v>4000</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q12" s="3">
         <v>2200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>4800</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1027,31 +1060,37 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -1062,37 +1101,43 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-300</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
+        <v>100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -1106,11 +1151,11 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1133,8 +1178,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1151,114 +1202,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>19500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>17800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>19400</v>
       </c>
       <c r="H17" s="3">
         <v>17800</v>
       </c>
       <c r="I17" s="3">
+        <v>19400</v>
+      </c>
+      <c r="J17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>11400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>9600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>7300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>15800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>13800</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-7200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,122 +1343,136 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>700</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>300</v>
-      </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
-      <c r="O20" s="3">
-        <v>100</v>
       </c>
       <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
+      <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
+        <v>100</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-7800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-9100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-3100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-7100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-5600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-7000</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1408,90 +1487,102 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>600</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-6300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-8100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-9400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-3500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-6100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-4800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1543,8 +1634,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1596,114 +1693,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-6300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-8100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-9400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-3500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-4800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-6300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-8100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-9400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-3500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-4800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1755,8 +1870,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1929,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1861,8 +1988,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1914,114 +2047,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-300</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-100</v>
       </c>
       <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
+      <c r="Q32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-100</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-6300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-8100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-9400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-3500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-4800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2073,119 +2224,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-6300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-8100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-9400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-3500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-4800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2205,8 +2374,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2226,47 +2397,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>161200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>188400</v>
+      </c>
+      <c r="F41" s="3">
         <v>193700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>213000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>223100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>224100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>138800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>141300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>149000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>159200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>19700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2279,8 +2452,14 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2332,47 +2511,53 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F43" s="3">
         <v>15200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>11100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>6300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>16400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>8400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>5500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>6900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>9400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>15400</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2385,47 +2570,53 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E44" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F44" s="3">
         <v>11700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>11200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>9600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>7900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>8300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>8000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>6800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>4600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>4800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>4400</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,46 +2629,52 @@
       <c r="S44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>3400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>3900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>4500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>2400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>2800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
-      </c>
-      <c r="L45" s="3">
-        <v>400</v>
       </c>
       <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
+      <c r="N45" s="3">
+        <v>400</v>
+      </c>
+      <c r="O45" s="3">
+        <v>300</v>
       </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
@@ -2491,47 +2688,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>187900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>215600</v>
+      </c>
+      <c r="F46" s="3">
         <v>223900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>238700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>243000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>252900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>157500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>157200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>163000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>171000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>34400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>31500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2544,8 +2747,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2597,47 +2806,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>10600</v>
       </c>
       <c r="E48" s="3">
         <v>7000</v>
       </c>
       <c r="F48" s="3">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="G48" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="H48" s="3">
         <v>7100</v>
       </c>
       <c r="I48" s="3">
+        <v>6800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K48" s="3">
         <v>7400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>7000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2650,20 +2865,26 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E49" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F49" s="3">
         <v>17200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2676,11 +2897,11 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2703,8 +2924,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2756,8 +2983,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2809,8 +3042,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2818,38 +3057,38 @@
         <v>1200</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
         <v>1200</v>
       </c>
       <c r="G52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
-        <v>1800</v>
-      </c>
       <c r="I52" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1800</v>
       </c>
       <c r="K52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M52" s="3">
         <v>700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>1600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>600</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2862,8 +3101,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2915,47 +3160,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>218400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>242600</v>
+      </c>
+      <c r="F54" s="3">
         <v>249300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>247000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>251200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>260900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>166300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>166500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>171800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>178800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>43400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>39900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2968,8 +3219,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2989,8 +3246,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3010,8 +3269,10 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3019,38 +3280,38 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1700</v>
       </c>
       <c r="K57" s="3">
         <v>1000</v>
       </c>
       <c r="L57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N57" s="3">
         <v>600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3063,19 +3324,25 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -3090,20 +3357,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,47 +3383,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F59" s="3">
         <v>17400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>14200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>11100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>7600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>8200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3169,47 +3442,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F60" s="3">
         <v>19100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>13700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>14800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>9200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>12300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>8500</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,13 +3501,19 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>15000</v>
@@ -3249,20 +3534,20 @@
         <v>15000</v>
       </c>
       <c r="K61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="L61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="M61" s="3">
         <v>14300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>11300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>12800</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3275,47 +3560,53 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F62" s="3">
         <v>18700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>15800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>16500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>15500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>13600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>14200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>14300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3328,8 +3619,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3381,8 +3678,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3434,8 +3737,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3487,47 +3796,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F66" s="3">
         <v>52800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>45900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>44400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>46300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>43500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>39800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>38400</v>
       </c>
       <c r="K66" s="3">
         <v>39800</v>
       </c>
       <c r="L66" s="3">
+        <v>38400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>39800</v>
+      </c>
+      <c r="N66" s="3">
         <v>37900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>32800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3540,8 +3855,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3561,8 +3882,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3614,8 +3937,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3667,8 +3996,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3697,17 +4032,17 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
         <v>71100</v>
       </c>
-      <c r="M70" s="3">
+      <c r="O70" s="3">
         <v>71100</v>
       </c>
-      <c r="N70" s="3">
-        <v>0</v>
-      </c>
-      <c r="O70" s="3">
-        <v>0</v>
-      </c>
       <c r="P70" s="3">
         <v>0</v>
       </c>
@@ -3720,8 +4055,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3773,47 +4114,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-146700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-134200</v>
+      </c>
+      <c r="F72" s="3">
         <v>-124400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-118200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-110100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-100600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-97200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-92000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-84600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-78500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-68200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-66500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3826,8 +4173,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3879,8 +4232,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3932,8 +4291,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3985,47 +4350,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>180600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>190600</v>
+      </c>
+      <c r="F76" s="3">
         <v>196500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>201100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>206800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>214600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>122800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>126700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>133300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>139000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-65600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-64000</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4038,8 +4409,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4091,119 +4468,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-6300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-8100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-9400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-3500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-4800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4223,19 +4618,21 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
         <v>500</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>300</v>
@@ -4244,40 +4641,46 @@
         <v>300</v>
       </c>
       <c r="I83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>400</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>400</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
+        <v>200</v>
+      </c>
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4329,8 +4732,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4382,8 +4791,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4435,8 +4850,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4488,8 +4909,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4541,61 +4968,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-4900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-10400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-2900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-7300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>2300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-6400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4615,61 +5054,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-600</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-600</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4721,8 +5168,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4774,61 +5227,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-14500</v>
-      </c>
-      <c r="E94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4848,8 +5313,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4901,8 +5368,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4954,8 +5427,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5007,8 +5486,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5060,61 +5545,73 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>94500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>137200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>5000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>17200</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5124,20 +5621,20 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -5166,57 +5663,69 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-19300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-1000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>85300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-2500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-7600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-10200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>139500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>8400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-6600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>5000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>5700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,268 +665,281 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E8" s="3">
         <v>9500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>11600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>15800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>11100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>8300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>15800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>12500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>8300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>15100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>8300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6200</v>
       </c>
-      <c r="S8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E9" s="3">
         <v>5100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>6500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>4500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>5700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>3900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>6600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3200</v>
       </c>
-      <c r="S9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="3">
         <v>4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>9300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>4100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>9100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>6800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>4400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>3800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>8500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>4300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>3000</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,67 +961,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5400</v>
-      </c>
-      <c r="E12" s="3">
-        <v>4700</v>
       </c>
       <c r="F12" s="3">
         <v>4700</v>
       </c>
       <c r="G12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="H12" s="3">
         <v>4300</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>4000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>2000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>4800</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1066,8 +1083,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1092,8 +1112,8 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>3</v>
@@ -1107,15 +1127,15 @@
       <c r="O14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-300</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1125,8 +1145,11 @@
       <c r="U14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,8 +1162,8 @@
       <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -1157,8 +1180,8 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1184,8 +1207,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1204,126 +1230,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E17" s="3">
         <v>22500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>19500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>11400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>7300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>15800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>8700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>7300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>13800</v>
       </c>
-      <c r="S17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-10400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7600</v>
       </c>
-      <c r="S18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1345,49 +1378,50 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>100</v>
       </c>
       <c r="I20" s="3">
         <v>100</v>
       </c>
       <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>300</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
       </c>
       <c r="Q20" s="3">
         <v>100</v>
@@ -1395,8 +1429,8 @@
       <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3" t="s">
-        <v>3</v>
+      <c r="S20" s="3">
+        <v>100</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>3</v>
@@ -1404,79 +1438,85 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-3100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-4900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-5600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7000</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
@@ -1493,119 +1533,125 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
         <v>400</v>
-      </c>
-      <c r="M22" s="3">
-        <v>200</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>600</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-3500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-6100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8100</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1640,8 +1686,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1699,126 +1748,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-9800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-6300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-3500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8100</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-9800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-6300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-3500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1876,8 +1934,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1935,8 +1996,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1994,8 +2058,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2053,49 +2120,52 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>-100</v>
       </c>
       <c r="I32" s="3">
         <v>-100</v>
       </c>
       <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-300</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
       </c>
       <c r="Q32" s="3">
         <v>-100</v>
@@ -2103,8 +2173,8 @@
       <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3" t="s">
-        <v>3</v>
+      <c r="S32" s="3">
+        <v>-100</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>3</v>
@@ -2112,67 +2182,73 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-9800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-6300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-3500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2230,131 +2306,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-9800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-6300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-3500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2376,8 +2461,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2399,50 +2485,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E41" s="3">
         <v>161200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>188400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>193700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>213000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>223100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>224100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>138800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>141300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>149000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>159200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>19700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>11300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2458,31 +2545,34 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>19700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2517,50 +2607,53 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E43" s="3">
         <v>8200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>10000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>15200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>11100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>6300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>16400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>8400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>9400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>15400</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2576,50 +2669,53 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E44" s="3">
         <v>13400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>12500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>11700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>9600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>8300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>6800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>4600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4400</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2635,50 +2731,53 @@
       <c r="U44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E45" s="3">
         <v>5200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>4700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>300</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2694,50 +2793,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>181100</v>
+      </c>
+      <c r="E46" s="3">
         <v>187900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>215600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>223900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>238700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>243000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>252900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>157500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>157200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>163000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>171000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>34400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>31500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2753,8 +2855,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2812,16 +2917,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E48" s="3">
         <v>10600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>7000</v>
       </c>
       <c r="F48" s="3">
         <v>7000</v>
@@ -2830,32 +2938,32 @@
         <v>7000</v>
       </c>
       <c r="H48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="I48" s="3">
         <v>7100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2871,23 +2979,26 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2903,8 +3014,8 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2930,8 +3041,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2989,8 +3103,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3048,50 +3165,53 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>1200</v>
       </c>
       <c r="I52" s="3">
         <v>1200</v>
       </c>
       <c r="J52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>600</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3107,8 +3227,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3166,50 +3289,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>210800</v>
+      </c>
+      <c r="E54" s="3">
         <v>218400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>242600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>249300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>247000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>251200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>260900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>166300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>171800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>178800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3225,8 +3351,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3248,8 +3377,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3271,50 +3401,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3330,8 +3461,11 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3363,17 +3497,17 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3389,50 +3523,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E59" s="3">
         <v>16900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>17800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>14200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>11500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>9300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3448,50 +3585,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E60" s="3">
         <v>18700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>13700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>13100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>12300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8500</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3507,8 +3647,11 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3516,7 +3659,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
         <v>15000</v>
@@ -3540,17 +3683,17 @@
         <v>15000</v>
       </c>
       <c r="M61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="N61" s="3">
         <v>14300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>11300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>12800</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3566,50 +3709,53 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
         <v>19100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>15400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>13600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,8 +3771,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3684,8 +3833,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3743,8 +3895,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3802,50 +3957,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E66" s="3">
         <v>37800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>52000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>45900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>44400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>46300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>43500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>39800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>38400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>37900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3861,8 +4019,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3884,8 +4045,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3943,8 +4105,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4002,8 +4167,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4038,13 +4206,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="O70" s="3">
         <v>71100</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -4061,8 +4229,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4120,50 +4291,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-156100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-146700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-134200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-124400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-118200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-110100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-100600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-97200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-92000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-84600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-78500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-68200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-66500</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +4353,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4238,8 +4415,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4297,8 +4477,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4356,50 +4539,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>174500</v>
+      </c>
+      <c r="E76" s="3">
         <v>180600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>190600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>196500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>201100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>206800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>214600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>122800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>126700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>133300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>139000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-65600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-64000</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4415,8 +4601,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4474,131 +4663,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="T80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-9800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-6300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-3500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4620,8 +4818,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4632,10 +4831,10 @@
         <v>600</v>
       </c>
       <c r="F83" s="3">
+        <v>600</v>
+      </c>
+      <c r="G83" s="3">
         <v>500</v>
-      </c>
-      <c r="G83" s="3">
-        <v>300</v>
       </c>
       <c r="H83" s="3">
         <v>300</v>
@@ -4647,40 +4846,43 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>200</v>
       </c>
       <c r="N83" s="3">
         <v>200</v>
       </c>
       <c r="O83" s="3">
+        <v>200</v>
+      </c>
+      <c r="P83" s="3">
         <v>400</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
+        <v>200</v>
+      </c>
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4738,8 +4940,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4797,8 +5002,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4856,8 +5064,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4915,8 +5126,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4974,67 +5188,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-10600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-5100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-4900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-10400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-9200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-7300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>2300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>8200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-11200</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5056,67 +5276,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5174,8 +5398,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5233,67 +5460,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-14500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5315,8 +5548,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5374,8 +5608,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5433,8 +5670,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5492,8 +5732,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5551,44 +5794,47 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>94500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>137200</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -5596,22 +5842,25 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>5000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>17200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,8 +5870,8 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
+      <c r="F101" s="3">
+        <v>0</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -5636,8 +5885,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -5669,63 +5918,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-27200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>85300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-2500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>139500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>8400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>5000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MASS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>MASS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,281 +665,294 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E8" s="3">
         <v>12100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>9500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>11600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>11100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>8300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>15800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>12500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>8300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>15100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>8300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6200</v>
       </c>
-      <c r="T8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E9" s="3">
         <v>6300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>5100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>5700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>4500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>6600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3200</v>
       </c>
-      <c r="T9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E10" s="3">
         <v>5800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>4400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>9300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>6600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>4100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>9100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>6800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>4400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>3800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>8500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>4300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>3000</v>
       </c>
-      <c r="T10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,8 +975,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -971,61 +985,64 @@
         <v>5500</v>
       </c>
       <c r="E12" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F12" s="3">
         <v>5400</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4700</v>
       </c>
       <c r="G12" s="3">
         <v>4700</v>
       </c>
       <c r="H12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I12" s="3">
         <v>4300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>3100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>3000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>4000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>2000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>2200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>4800</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1103,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1115,8 +1135,8 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>3</v>
@@ -1130,15 +1150,15 @@
       <c r="P14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>-300</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1148,8 +1168,11 @@
       <c r="V14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1165,8 +1188,8 @@
       <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -1183,8 +1206,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1210,8 +1233,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1231,132 +1257,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
         <v>23000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>22500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>22000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>23000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>19500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>19400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>11400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>15800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>7300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>13800</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-10900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-10400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-9500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-7400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-5900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7600</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1379,52 +1412,53 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>300</v>
-      </c>
-      <c r="I20" s="3">
-        <v>100</v>
       </c>
       <c r="J20" s="3">
         <v>100</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>300</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>100</v>
       </c>
       <c r="R20" s="3">
         <v>100</v>
@@ -1432,8 +1466,8 @@
       <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3" t="s">
-        <v>3</v>
+      <c r="T20" s="3">
+        <v>100</v>
       </c>
       <c r="U20" s="3" t="s">
         <v>3</v>
@@ -1441,85 +1475,91 @@
       <c r="V20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E21" s="3">
         <v>-8800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-3100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-4900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-5600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
         <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-3600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7000</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
@@ -1536,107 +1576,113 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>400</v>
-      </c>
-      <c r="N22" s="3">
-        <v>200</v>
       </c>
       <c r="O22" s="3">
         <v>200</v>
       </c>
       <c r="P22" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q22" s="3">
         <v>500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>600</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-6300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-6100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8100</v>
       </c>
-      <c r="T23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
+      <c r="E24" s="3">
+        <v>-100</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
@@ -1653,8 +1699,8 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1689,8 +1735,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1751,132 +1800,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-9300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-6300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8100</v>
       </c>
-      <c r="T26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-9300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-6300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1937,8 +1995,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1999,8 +2060,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2061,8 +2125,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2123,52 +2190,55 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-300</v>
-      </c>
-      <c r="I32" s="3">
-        <v>-100</v>
       </c>
       <c r="J32" s="3">
         <v>-100</v>
       </c>
       <c r="K32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-100</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
@@ -2176,8 +2246,8 @@
       <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3" t="s">
-        <v>3</v>
+      <c r="T32" s="3">
+        <v>-100</v>
       </c>
       <c r="U32" s="3" t="s">
         <v>3</v>
@@ -2185,70 +2255,76 @@
       <c r="V32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-9300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-6300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2309,137 +2385,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-9300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-6300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2462,8 +2547,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2486,53 +2572,54 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>118200</v>
+      </c>
+      <c r="E41" s="3">
         <v>133000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>161200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>188400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>193700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>213000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>223100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>224100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>138800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>141300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>149000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>159200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>11300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2548,17 +2635,20 @@
       <c r="V41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E42" s="3">
         <v>19700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2664,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2610,53 +2700,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E43" s="3">
         <v>10300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>8200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>10000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>15200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>11100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>6300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>16400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>8400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>5500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>6900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>9400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>15400</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,53 +2765,56 @@
       <c r="V43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E44" s="3">
         <v>14100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>13400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>12500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>11700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>11200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>9600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>8300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>8000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>6800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>4600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>4800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>4400</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R44" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,53 +2830,56 @@
       <c r="V44" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E45" s="3">
         <v>3900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>3200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>3400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>2400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>2800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>300</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2796,53 +2895,56 @@
       <c r="V45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179800</v>
+      </c>
+      <c r="E46" s="3">
         <v>181100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>187900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>215600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>223900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>238700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>243000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>252900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>157500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>157200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>163000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>171000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>34400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>31500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2858,8 +2960,11 @@
       <c r="V46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2920,19 +3025,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E48" s="3">
         <v>10100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>10600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7000</v>
       </c>
       <c r="G48" s="3">
         <v>7000</v>
@@ -2941,32 +3049,32 @@
         <v>7000</v>
       </c>
       <c r="I48" s="3">
+        <v>7000</v>
+      </c>
+      <c r="J48" s="3">
         <v>7100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>7400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>7000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2982,26 +3090,29 @@
       <c r="V48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E49" s="3">
         <v>18300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -3017,8 +3128,8 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3044,8 +3155,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3106,8 +3220,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3168,53 +3285,56 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1300</v>
-      </c>
-      <c r="I52" s="3">
-        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>1200</v>
       </c>
       <c r="K52" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>600</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
@@ -3230,8 +3350,11 @@
       <c r="V52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3292,53 +3415,56 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>208500</v>
+      </c>
+      <c r="E54" s="3">
         <v>210800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>218400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>242600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>249300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>247000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>251200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>260900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>166300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>166500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>171800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>178800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>43400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>39900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3354,8 +3480,11 @@
       <c r="V54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3378,8 +3507,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3402,53 +3532,54 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3464,8 +3595,11 @@
       <c r="V57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3500,17 +3634,17 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3526,53 +3660,56 @@
       <c r="V58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E59" s="3">
         <v>18700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>16900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>17800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>17400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>14200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>11500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>13500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>8200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3588,53 +3725,56 @@
       <c r="V59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E60" s="3">
         <v>20200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>13700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>14800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>12300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8500</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3650,8 +3790,11 @@
       <c r="V60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3662,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
         <v>15000</v>
@@ -3686,17 +3829,17 @@
         <v>15000</v>
       </c>
       <c r="N61" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O61" s="3">
         <v>14300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>11300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>12800</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -3712,8 +3855,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3721,44 +3867,44 @@
         <v>16200</v>
       </c>
       <c r="E62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="F62" s="3">
         <v>19100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>15400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>15800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>13600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>14600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>14300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3774,8 +3920,11 @@
       <c r="V62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3836,8 +3985,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3898,8 +4050,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3960,53 +4115,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>38500</v>
+      </c>
+      <c r="E66" s="3">
         <v>36400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>37800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>52000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>52800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>45900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>44400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>46300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>43500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>38400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>39800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>37900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
@@ -4022,8 +4180,11 @@
       <c r="V66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4046,8 +4207,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4108,8 +4270,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4170,8 +4335,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4209,13 +4377,13 @@
         <v>0</v>
       </c>
       <c r="O70" s="3">
-        <v>71100</v>
+        <v>0</v>
       </c>
       <c r="P70" s="3">
         <v>71100</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>71100</v>
       </c>
       <c r="R70" s="3">
         <v>0</v>
@@ -4232,8 +4400,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4294,53 +4465,56 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-163200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-156100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-146700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-134200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-124400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-118200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-110100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-100600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-97200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-92000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-84600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-78500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-68200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-66500</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4356,8 +4530,11 @@
       <c r="V72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4418,8 +4595,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4480,8 +4660,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4542,53 +4725,56 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>169900</v>
+      </c>
+      <c r="E76" s="3">
         <v>174500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>180600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>190600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>196500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>201100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>206800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>214600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>122800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>126700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>133300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>139000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-65600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4604,8 +4790,11 @@
       <c r="V76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4666,137 +4855,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="V80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-9300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-6300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4819,13 +5017,14 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>600</v>
@@ -4834,10 +5033,10 @@
         <v>600</v>
       </c>
       <c r="G83" s="3">
+        <v>600</v>
+      </c>
+      <c r="H83" s="3">
         <v>500</v>
-      </c>
-      <c r="H83" s="3">
-        <v>300</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4849,40 +5048,43 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>200</v>
       </c>
       <c r="P83" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q83" s="3">
         <v>400</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>200</v>
       </c>
       <c r="S83" s="3">
+        <v>200</v>
+      </c>
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4943,8 +5145,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5005,8 +5210,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5067,8 +5275,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5129,8 +5340,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5191,70 +5405,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-10600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-5100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-4900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-10400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-9200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-7300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-9600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>2300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-11200</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5277,70 +5497,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5401,8 +5625,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5463,70 +5690,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-14500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5549,8 +5782,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5611,8 +5845,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5673,8 +5910,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5735,8 +5975,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5797,47 +6040,50 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-15400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>94500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>137200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -5845,22 +6091,25 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>5000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>17200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5873,8 +6122,8 @@
       <c r="F101" s="3">
         <v>0</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -5888,8 +6137,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -5921,66 +6170,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-28200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-27200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>85300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-7600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>139500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>8400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>5000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>5700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="V102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
